--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>785757.5123904037</v>
+        <v>865960.2355424385</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9526646.958593307</v>
+        <v>9526646.958593309</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>201.0232544020818</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>290.2580888047755</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838602</v>
       </c>
       <c r="T3" t="n">
         <v>192.0665623188214</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.9430992003366</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>53.96736632880982</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.781160222249448</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>193.1994278308463</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>258.2471978122853</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.5027752869399</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835127</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>308.9203564757145</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>190.1424348012383</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3606546765268</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>308.9203564757145</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>194.3606546765268</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>308.9203564757145</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>115.1131774584546</v>
       </c>
       <c r="F19" t="n">
-        <v>144.7801363297482</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>321.9504068351019</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>205.6364455689702</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>82.3950153772967</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>206.5922292904584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7965692041367</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>16.07545940439591</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1043346164872</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2606,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>69.37663430902816</v>
+        <v>58.92805047992029</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>104.2590660175761</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>72.35162786772754</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>229.796569204137</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U31" t="n">
-        <v>270.069702148647</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.9897563288618</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>35.01527374485252</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>4.791624857388396</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>313.073874897297</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>138.548792854317</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>62.85012899977551</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>323.5668830180535</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>284.4297735342292</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>85.64441364470562</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3916,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>203.1977700471494</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>333.4844388659176</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>135.7341931089247</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>28.20584125154502</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>200.6939993756705</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.660291726717</v>
+        <v>1844.676600992464</v>
       </c>
       <c r="C2" t="n">
-        <v>1272.660291726717</v>
+        <v>1475.714084052052</v>
       </c>
       <c r="D2" t="n">
-        <v>914.3945931199664</v>
+        <v>1117.448385445302</v>
       </c>
       <c r="E2" t="n">
-        <v>528.6063405217222</v>
+        <v>731.6601328470574</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>320.6742280574499</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>320.6742280574499</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>2015.568278972643</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.799623702529</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.799623702529</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.660291726717</v>
+        <v>2231.276441056586</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
         <v>607.9167021542605</v>
@@ -4395,43 +4397,43 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,7 +4448,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
         <v>1307.279776881661</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2361.386702945269</v>
+        <v>420.2093035084148</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2507.826837158933</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2254.245776423113</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1923.182889079542</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1570.414233809428</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1196.948475548348</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.339328400155</v>
+        <v>806.8091435725366</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,31 +4643,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485138</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>570.452659242627</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056664</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764901</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.2467865680031</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D8" t="n">
-        <v>1043.17188115873</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E8" t="n">
-        <v>657.3836285604857</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F8" t="n">
-        <v>246.3977237708781</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2301.483573034211</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1948.714917764097</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163263</v>
+        <v>1575.249159503017</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.2467865680031</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C11" t="n">
-        <v>552.807938939214</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324635</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5111,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064554</v>
@@ -5124,16 +5126,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5236,13 +5238,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>688.1611707063333</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>460.171619808316</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>460.171619808316</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1032.06112435253</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C14" t="n">
-        <v>663.0986074121186</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D14" t="n">
-        <v>304.832908805368</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392464</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y14" t="n">
-        <v>1418.660964416652</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.837793613838</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1032.06112435253</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C17" t="n">
-        <v>663.0986074121186</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D17" t="n">
-        <v>304.832908805368</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E17" t="n">
-        <v>108.5090151927147</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392464</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y17" t="n">
-        <v>1418.660964416652</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>477.7831921883597</v>
+        <v>815.7608990065712</v>
       </c>
       <c r="C19" t="n">
-        <v>477.7831921883597</v>
+        <v>646.8247160786643</v>
       </c>
       <c r="D19" t="n">
-        <v>477.7831921883597</v>
+        <v>496.7080766663286</v>
       </c>
       <c r="E19" t="n">
-        <v>477.7831921883597</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G19" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621296</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X19" t="n">
-        <v>880.2242361621296</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y19" t="n">
-        <v>659.4316570185995</v>
+        <v>997.4093638368109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1844.338003964586</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C20" t="n">
-        <v>1844.338003964586</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="D20" t="n">
-        <v>1486.072305357836</v>
+        <v>1486.072305357837</v>
       </c>
       <c r="E20" t="n">
-        <v>1100.284052759591</v>
+        <v>1100.284052759593</v>
       </c>
       <c r="F20" t="n">
-        <v>689.2981479699838</v>
+        <v>689.2981479699852</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>274.2256978149816</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5759,43 +5761,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.542934265599</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W20" t="n">
-        <v>2994.542934265599</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X20" t="n">
-        <v>2621.07717600452</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y20" t="n">
-        <v>2230.937844028708</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>382.1280466398575</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="C22" t="n">
-        <v>382.1280466398575</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="D22" t="n">
-        <v>382.1280466398575</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574644</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>1694.2678649949</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>1548.050678212758</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>2492.401296491968</v>
       </c>
       <c r="X22" t="n">
-        <v>382.1280466398575</v>
+        <v>2264.41174559395</v>
       </c>
       <c r="Y22" t="n">
-        <v>382.1280466398575</v>
+        <v>2043.61916645042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038042</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097631</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.40402049088</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926361</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030285</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6008,31 +6010,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339056</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077976</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102164</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1930.766159791013</v>
+        <v>2061.243111252065</v>
       </c>
       <c r="C25" t="n">
-        <v>1761.829976863107</v>
+        <v>1892.306928324158</v>
       </c>
       <c r="D25" t="n">
-        <v>1611.713337450771</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="E25" t="n">
-        <v>1611.713337450771</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.298412905648</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="V25" t="n">
-        <v>2850.613924699761</v>
+        <v>2981.090876160813</v>
       </c>
       <c r="W25" t="n">
-        <v>2561.1967546628</v>
+        <v>2691.673706123852</v>
       </c>
       <c r="X25" t="n">
-        <v>2333.207203764783</v>
+        <v>2463.684155225835</v>
       </c>
       <c r="Y25" t="n">
-        <v>2112.414624621253</v>
+        <v>2242.891576082305</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1594.601034732593</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1225.638517792182</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>867.3728191854311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
         <v>481.5845665871869</v>
@@ -6254,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W26" t="n">
-        <v>2354.666633057795</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X26" t="n">
-        <v>1981.200874796715</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
-        <v>1981.200874796715</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6308,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.680167749271</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>616.7439848213642</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>466.6273454090284</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>318.7142518266353</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>171.8243043287249</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6409,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658019</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>1705.527932658019</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>1416.110762621058</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>1188.121211723041</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>967.3286325795108</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1164.956419576664</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>1164.956419576664</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>1164.956419576664</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6461,16 +6463,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6491,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3252.523369217526</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2998.992892491362</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V29" t="n">
-        <v>2667.930005147792</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W29" t="n">
-        <v>2315.161349877677</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.695591616598</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y29" t="n">
-        <v>1551.556259640786</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6643,13 +6645,13 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S31" t="n">
-        <v>3133.919937435996</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T31" t="n">
-        <v>2912.153322005523</v>
+        <v>2928.458509941852</v>
       </c>
       <c r="U31" t="n">
         <v>2639.355643067495</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2866.097597267229</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X32" t="n">
-        <v>2492.631839006149</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y32" t="n">
-        <v>2492.631839006149</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6880,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1891.925584709854</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1700.23970053668</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1478.473085106206</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1189.37021823185</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0249360836216</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1506.36381994936</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.401303008948</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D35" t="n">
-        <v>1137.401303008948</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E35" t="n">
-        <v>1137.401303008948</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6962,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520487</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250373</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.102991989293</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y35" t="n">
-        <v>1892.963660013481</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="36">
@@ -7117,28 +7119,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193524</v>
+        <v>3150.225125372326</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.32286476305</v>
+        <v>2928.458509941852</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888694</v>
+        <v>2639.355643067495</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682807</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645846</v>
+        <v>2095.253984824648</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.128788747829</v>
+        <v>1867.26443392663</v>
       </c>
       <c r="Y37" t="n">
-        <v>1540.336209604299</v>
+        <v>1646.4718547831</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1659.057359339775</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1290.094842399363</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>931.829143792613</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>546.0408911943687</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>546.0408911943687</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2788.565186649823</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2435.796531379709</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>2435.796531379709</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>2045.657199403897</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.322087337517</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C40" t="n">
-        <v>527.322087337517</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D40" t="n">
-        <v>527.322087337517</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396067</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X40" t="n">
-        <v>527.322087337517</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.322087337517</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1506.363819949361</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C41" t="n">
-        <v>1137.401303008949</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1356044021989</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E41" t="n">
-        <v>393.3473518039546</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2656.568750250374</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X41" t="n">
-        <v>2283.102991989294</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y41" t="n">
-        <v>1892.963660013483</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>785.9944709118752</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>617.0582879839683</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>466.9416485716325</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7597,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1722.044275313594</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.044275313594</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>967.6429357421149</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1137.43386558517</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C44" t="n">
-        <v>1137.43386558517</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1681669784198</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="E44" t="n">
-        <v>779.1681669784198</v>
+        <v>814.3509897732229</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>403.3650849836153</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W44" t="n">
-        <v>2287.638795886184</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X44" t="n">
-        <v>1914.173037625104</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y44" t="n">
-        <v>1524.033705649292</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1640.204086189707</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C46" t="n">
-        <v>1640.204086189707</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D46" t="n">
-        <v>1640.204086189707</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E46" t="n">
-        <v>1611.713337450772</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>2814.736339304341</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="V46" t="n">
-        <v>2560.051851098454</v>
+        <v>1469.88884839203</v>
       </c>
       <c r="W46" t="n">
-        <v>2270.634681061494</v>
+        <v>1180.471678355069</v>
       </c>
       <c r="X46" t="n">
-        <v>2042.645130163476</v>
+        <v>952.4821274570515</v>
       </c>
       <c r="Y46" t="n">
-        <v>1821.852551019946</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921338</v>
+        <v>265.0304328515152</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>162.0073097921335</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>240.446544241743</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,7 +22564,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>99.99529816032361</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22603,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>37.49416966535944</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>182.4085303613876</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.7907424631439</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>152.6908186514239</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.8034931298454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>218.3482749421077</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>69.50506065784958</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,22 +23229,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>115.245920710272</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839105</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>97.95568926599697</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23276,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>96.38056353535271</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.5947289549143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>187.569715395735</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>97.95568926599697</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -23513,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>187.569715395735</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>97.95568926599697</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -23750,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23785,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>31.32078518811453</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6409116931829999</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97131881835151</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>88.97131881835026</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>13.95740503254139</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>19.11742609857876</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1251564493168</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>132.5400136138165</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24418,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>68.10750358912566</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>279.8643344083848</v>
+        <v>290.3129182374927</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>61.76674224145212</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,16 +24651,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24680,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>131.5663422718926</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>21.19860275476498</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696591</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>236.7440853346187</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>53.91687892519481</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>377.9422168060922</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>93.80217084441443</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>272.3729327991365</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>162.8595263892616</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>83.30916272365795</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>60.78954900186355</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>83.01406815846352</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>77.43728678753587</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>213.5067756084883</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>118.2281213950241</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26074,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>85.51783882994241</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>765284.2720076086</v>
+        <v>765284.2720076084</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>765284.2720076084</v>
+        <v>765284.2720076086</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>765284.2720076084</v>
+        <v>765284.2720076086</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239161</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.164023916</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.1640239159</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321270.212019024</v>
+      </c>
+      <c r="C2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="D2" t="n">
         <v>321270.2120190238</v>
       </c>
-      <c r="C2" t="n">
-        <v>321270.2120190238</v>
-      </c>
-      <c r="D2" t="n">
-        <v>321270.2120190239</v>
-      </c>
       <c r="E2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="F2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="I2" t="n">
+        <v>358046.9539194668</v>
+      </c>
+      <c r="J2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="K2" t="n">
         <v>358046.9539194667</v>
-      </c>
-      <c r="J2" t="n">
-        <v>358046.9539194667</v>
-      </c>
-      <c r="K2" t="n">
-        <v>358046.9539194668</v>
       </c>
       <c r="L2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="N2" t="n">
+        <v>358046.9539194668</v>
+      </c>
+      <c r="O2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="P2" t="n">
         <v>358046.9539194665</v>
-      </c>
-      <c r="O2" t="n">
-        <v>358046.9539194667</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194668</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171907</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>16175.59256035157</v>
       </c>
       <c r="D4" t="n">
-        <v>16175.59256035158</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="E4" t="n">
         <v>8550.515172066862</v>
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26503,13 +26505,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>212156.8470188276</v>
       </c>
       <c r="D6" t="n">
-        <v>212156.8470188276</v>
+        <v>212156.8470188275</v>
       </c>
       <c r="E6" t="n">
-        <v>93117.11836881557</v>
+        <v>93117.11836881598</v>
       </c>
       <c r="F6" t="n">
-        <v>275190.0981860064</v>
+        <v>275190.0981860065</v>
       </c>
       <c r="G6" t="n">
-        <v>275190.0981860064</v>
+        <v>275190.0981860065</v>
       </c>
       <c r="H6" t="n">
         <v>275190.0981860065</v>
       </c>
       <c r="I6" t="n">
+        <v>275190.0981860066</v>
+      </c>
+      <c r="J6" t="n">
+        <v>107584.9203760239</v>
+      </c>
+      <c r="K6" t="n">
         <v>275190.0981860065</v>
-      </c>
-      <c r="J6" t="n">
-        <v>107584.920376024</v>
-      </c>
-      <c r="K6" t="n">
-        <v>275190.0981860066</v>
       </c>
       <c r="L6" t="n">
         <v>275190.0981860064</v>
       </c>
       <c r="M6" t="n">
-        <v>227637.8323925917</v>
+        <v>227637.8323925915</v>
       </c>
       <c r="N6" t="n">
+        <v>275190.0981860066</v>
+      </c>
+      <c r="O6" t="n">
         <v>275190.0981860064</v>
       </c>
-      <c r="O6" t="n">
-        <v>275190.0981860065</v>
-      </c>
       <c r="P6" t="n">
-        <v>275190.0981860066</v>
+        <v>275190.0981860064</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000391</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26823,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32558,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33026,13 +33028,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33512,7 +33514,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002927</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34141,7 +34143,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34226,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156661</v>
+        <v>514.7099619750476</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>553.2044093850075</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>584.5244463807092</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652754</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36674,13 +36676,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37160,7 +37162,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37789,7 +37791,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
